--- a/东奥会计专业/202101/1月科目余额表.xlsx
+++ b/东奥会计专业/202101/1月科目余额表.xlsx
@@ -16,7 +16,7 @@
     <sheet name="主营业务成本明细表" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1月账'!$A$1:$G$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1月账'!$A$1:$F$132</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -2163,8 +2163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="L131" sqref="L131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4132,6 +4132,7 @@
       <c r="D160" s="19"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F132"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
